--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,7 +504,7 @@
     <t>TDDUIAdmissionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date|2.0.0}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>TDDUIEntryModelabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label|2.0.0}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>TDDUIExitModeLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label|2.0.0}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.0.0}
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1076,7 +1076,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1095,7 +1095,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0)
 </t>
   </si>
   <si>
@@ -1617,7 +1617,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1826,7 +1826,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
 </t>
   </si>
   <si>
@@ -2190,7 +2190,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,7 +504,7 @@
     <t>TDDUIAdmissionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>TDDUIEntryModelabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>TDDUIExitModeLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1076,7 +1076,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1095,7 +1095,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
 </t>
   </si>
   <si>
@@ -1617,7 +1617,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1826,7 +1826,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
 </t>
   </si>
   <si>
@@ -2190,7 +2190,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="140.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
